--- a/print_settings/strength/infill_desc_calculator.xlsx
+++ b/print_settings/strength/infill_desc_calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Repos\OrcaSlicer\doc\print_settings\strength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D9342C-2BC8-4E65-A1F6-5FE50430102E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0746496-878A-4475-889F-BAAA76C0EE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCEEB8-8D62-4686-9FA1-C052039D2FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -255,13 +255,6 @@
     <t>Ultra-High</t>
   </si>
   <si>
-    <t>Esthetic pattern with low strength and high print time.</t>
-  </si>
-  <si>
-    <t>Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its Esthetic appeal and ability to fill space efficiently.
-Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for Esthetic purposes.</t>
-  </si>
-  <si>
     <t>Max %</t>
   </si>
   <si>
@@ -530,9 +523,6 @@
     <t>TPMS</t>
   </si>
   <si>
-    <t>Esthetic</t>
-  </si>
-  <si>
     <t>Support</t>
   </si>
   <si>
@@ -621,6 +611,16 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Aesthetic</t>
+  </si>
+  <si>
+    <t>Aesthetic pattern with low strength and high print time.</t>
+  </si>
+  <si>
+    <t>Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its aesthetic appeal and ability to fill space efficiently.
+Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for aesthetic purposes.</t>
   </si>
 </sst>
 </file>
@@ -698,10 +698,6 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
@@ -736,6 +732,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1018,12 +1018,12 @@
     <tableColumn id="21" xr3:uid="{75AA760A-15C0-4692-B168-BF74BE6D50F6}" name="Pattern" dataDxfId="13" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>"["&amp;Infill[[#This Row],[name]]&amp;"](#"&amp;Infill[[#This Row],[nameMD]]&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{D12C345A-0415-4208-969C-FE76BD14B76A}" name="Applies to" dataDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="31" xr3:uid="{D12C345A-0415-4208-969C-FE76BD14B76A}" name="Applies to" dataDxfId="12" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Infill[[#This Row],[Is Infill]],"  - **[Sparse Infill](strength_settings_infill#sparse-infill-density)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"  - **[Solid Infill](strength_settings_infill#internal-solid-infill)**",)&amp;IF(Infill[[#This Row],[Is Surface]],"
   - **[Surface](strength_settings_top_bottom_shells)**",)&amp;IF(Infill[[#This Row],[Is Ironing]],"
   - **[Ironing](quality_settings_ironing)**",)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="12" dataCellStyle="Porcentaje">
+    <tableColumn id="14" xr3:uid="{AE92B56B-1C4F-4A43-BC18-AFFF1480255E}" name="MD" dataDxfId="11" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]],Infill[[#This Row],[Is Ironing]]),"## "&amp;Infill[[#This Row],[name]]&amp;"
 "&amp;Infill[[#This Row],[Desc]]&amp;"
 - **Horizontal Strength (X-Y):** "&amp;Infill[[#This Row],[X-Y Strength]]&amp;"
@@ -1037,13 +1037,13 @@
 ![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="11" dataCellStyle="Porcentaje">
+    <tableColumn id="26" xr3:uid="{B5B3DE03-E8E0-4448-BA81-E5B849AC0415}" name="s_keys_map" dataDxfId="10" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]])," { """&amp;Infill[[#This Row],[infill]]&amp;""", "&amp;Infill[[#This Row],[ip]]&amp;" },","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="10" dataCellStyle="Porcentaje">
+    <tableColumn id="30" xr3:uid="{DF1D46A6-663C-4993-9678-9483ECBDC09A}" name="Enum Pattern" dataDxfId="9" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_values.push_back("""&amp;Infill[[#This Row],[infill]]&amp;""");","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="9" dataCellStyle="Porcentaje">
+    <tableColumn id="29" xr3:uid="{A375012B-C9F3-4FDF-8EA3-593D97EDEB2B}" name="Enum Pattern Names" dataDxfId="8" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(OR(Infill[[#This Row],[Is Infill]],Infill[[#This Row],[Is Surface]]),"def-&gt;enum_labels.push_back(L("""&amp;Infill[[#This Row],[name]]&amp;"""));","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1067,7 +1067,7 @@
   <autoFilter ref="A16:C25" xr:uid="{8371D3BF-96D7-48EB-82A0-8021F9AA952E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1D00CA6A-CEDD-45A1-8BA8-6DB7769D516C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="8" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{3AC9B406-037B-4FD3-80D6-86F4D94EDB36}" name="Max %" dataDxfId="7" dataCellStyle="Porcentaje"/>
     <tableColumn id="3" xr3:uid="{18E14714-6899-4575-90B8-4F97863AF141}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1078,25 +1078,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F85400E8-93F1-42C5-93F9-13851BAE5398}" name="Tabla4" displayName="Tabla4" ref="AN1:AT32" totalsRowShown="0">
   <autoFilter ref="AN1:AT32" xr:uid="{F85400E8-93F1-42C5-93F9-13851BAE5398}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{184C8A2D-5FE4-4972-8525-02DD0ED763F3}" name="-" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{184C8A2D-5FE4-4972-8525-02DD0ED763F3}" name="-" dataDxfId="6">
       <calculatedColumnFormula>Infill[[#This Row],[SVG Link]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{14A2CB57-4B88-4948-ABB5-B4E1F3AB50EF}" name="Pattern" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{14A2CB57-4B88-4948-ABB5-B4E1F3AB50EF}" name="Pattern" dataDxfId="5">
       <calculatedColumnFormula>Infill[[#This Row],[Pattern]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7FB40202-1341-4B88-81D2-89C268F45D4D}" name="Applies to" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{7FB40202-1341-4B88-81D2-89C268F45D4D}" name="Applies to" dataDxfId="4">
       <calculatedColumnFormula>Infill[[#This Row],[Applies to]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F83791FA-52BD-4574-8359-2DC84F1575E3}" name="X-Y Strength" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{F83791FA-52BD-4574-8359-2DC84F1575E3}" name="X-Y Strength" dataDxfId="3">
       <calculatedColumnFormula>Infill[[#This Row],[X-Y Strength]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A30810A1-1E95-4BAA-97B8-93C571CB8CF0}" name="Z Strength" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{A30810A1-1E95-4BAA-97B8-93C571CB8CF0}" name="Z Strength" dataDxfId="2">
       <calculatedColumnFormula>Infill[[#This Row],[Z Strength]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{630ACA64-21F3-4422-B317-D820E5C1F820}" name="Material Usage" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{630ACA64-21F3-4422-B317-D820E5C1F820}" name="Material Usage" dataDxfId="1">
       <calculatedColumnFormula>Infill[[#This Row],[Material/Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5F0A6FFD-7381-42EE-8794-FC0492BBA85C}" name="Print Time" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{5F0A6FFD-7381-42EE-8794-FC0492BBA85C}" name="Print Time" dataDxfId="0">
       <calculatedColumnFormula>Infill[[#This Row],[Print Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F62B1C-B5D3-443B-88E3-A492D48347EC}">
   <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,28 +1484,28 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M1" t="s">
         <v>40</v>
@@ -1535,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="V1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
         <v>20</v>
@@ -1544,55 +1544,55 @@
         <v>46</v>
       </c>
       <c r="Y1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC1" t="s">
         <v>67</v>
       </c>
       <c r="AD1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AE1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AF1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AI1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AJ1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AK1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN1" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AO1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AP1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AQ1" t="s">
         <v>27</v>
@@ -1604,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="AT1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1627,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N2">
         <v>4</v>
@@ -1656,7 +1656,7 @@
         <v>Normal</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S2">
         <v>7</v>
@@ -1811,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -1840,7 +1840,7 @@
         <v>Normal</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S3">
         <v>9</v>
@@ -2001,13 +2001,13 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -2024,7 +2024,7 @@
         <v>Low</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S4">
         <v>8</v>
@@ -2162,7 +2162,7 @@
         <v>Normal-Low</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="270" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2188,10 +2188,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>62</v>
@@ -2211,7 +2211,7 @@
         <v>Normal</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S5">
         <v>8</v>
@@ -2367,19 +2367,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -2396,7 +2396,7 @@
         <v>Low</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S6">
         <v>8</v>
@@ -2548,19 +2548,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -2577,7 +2577,7 @@
         <v>Low</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S7">
         <v>8</v>
@@ -2729,19 +2729,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -2758,7 +2758,7 @@
         <v>Normal-Low</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S8">
         <v>15</v>
@@ -2916,10 +2916,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>56</v>
@@ -2939,7 +2939,7 @@
         <v>Low</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S9">
         <v>7</v>
@@ -3073,10 +3073,10 @@
     </row>
     <row r="10" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -3094,13 +3094,13 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>55</v>
@@ -3120,7 +3120,7 @@
         <v>High</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -3254,10 +3254,10 @@
     </row>
     <row r="11" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -3275,13 +3275,13 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>58</v>
@@ -3301,7 +3301,7 @@
         <v>Normal</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S11">
         <v>7</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="12" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -3456,13 +3456,13 @@
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>59</v>
@@ -3482,7 +3482,7 @@
         <v>Normal-High</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S12">
         <v>7</v>
@@ -3634,10 +3634,10 @@
         <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>57</v>
@@ -3657,7 +3657,7 @@
         <v>High</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S13">
         <v>7</v>
@@ -3809,10 +3809,10 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>61</v>
@@ -3832,7 +3832,7 @@
         <v>Normal-High</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S14">
         <v>5</v>
@@ -3984,10 +3984,10 @@
         <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>66</v>
@@ -4007,7 +4007,7 @@
         <v>High</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S15">
         <v>8</v>
@@ -4144,7 +4144,7 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -4165,13 +4165,13 @@
         <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>64</v>
@@ -4191,7 +4191,7 @@
         <v>Low</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S16">
         <v>2</v>
@@ -4349,13 +4349,13 @@
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>65</v>
@@ -4375,7 +4375,7 @@
         <v>Low</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -4536,10 +4536,10 @@
         <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>60</v>
@@ -4559,7 +4559,7 @@
         <v>High</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S18">
         <v>17</v>
@@ -4720,13 +4720,13 @@
         <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -4898,19 +4898,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
         <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -4927,7 +4927,7 @@
         <v>Normal-Low</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S20">
         <v>8</v>
@@ -5082,19 +5082,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
         <v>188</v>
       </c>
-      <c r="J21" t="s">
-        <v>189</v>
-      </c>
-      <c r="K21" t="s">
-        <v>185</v>
-      </c>
-      <c r="L21" t="s">
-        <v>191</v>
-      </c>
       <c r="M21" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -5111,7 +5111,7 @@
         <v>Low</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S21">
         <v>8</v>
@@ -5269,16 +5269,16 @@
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N22">
         <v>5</v>
@@ -5295,7 +5295,7 @@
         <v>Normal-High</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S22">
         <v>10</v>
@@ -5454,16 +5454,16 @@
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N23">
         <v>6</v>
@@ -5480,7 +5480,7 @@
         <v>High</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S23">
         <v>11</v>
@@ -5635,19 +5635,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" t="s">
+        <v>169</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="J24" t="s">
-        <v>162</v>
-      </c>
-      <c r="K24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" t="s">
-        <v>172</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="N24">
         <v>5</v>
@@ -5664,7 +5664,7 @@
         <v>Normal-High</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S24">
         <v>12</v>
@@ -5822,16 +5822,16 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N25">
         <v>6</v>
@@ -5848,7 +5848,7 @@
         <v>High</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S25">
         <v>10</v>
@@ -5997,13 +5997,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>54</v>
@@ -6023,7 +6023,7 @@
         <v>Normal</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S26">
         <v>8</v>
@@ -6178,16 +6178,16 @@
         <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="K27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -6204,7 +6204,7 @@
         <v>Normal</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S27">
         <v>13</v>
@@ -6284,8 +6284,8 @@
 ![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v xml:space="preserve">## Hilbert Curve
-Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its Esthetic appeal and ability to fill space efficiently.
-Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for Esthetic purposes.
+Hilbert Curve is a space-filling curve that can be used to create a continuous infill pattern. It is known for its aesthetic appeal and ability to fill space efficiently.
+Print speed is very low due to the complexity of the path, which can lead to longer print times. It is not recommended for structural parts but can be used for aesthetic purposes.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:**  % of  total infill volume
@@ -6357,13 +6357,13 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="K28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>63</v>
@@ -6383,7 +6383,7 @@
         <v>Normal</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S28">
         <v>7</v>
@@ -6535,16 +6535,16 @@
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="K29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -6561,7 +6561,7 @@
         <v>Normal</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S29">
         <v>9</v>
@@ -6641,7 +6641,7 @@
 ![infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;"](https://github.com/SoftFever/OrcaSlicer/blob/main/doc/images/fill/infill-top-"&amp;Infill[[#This Row],[nameMD]]&amp;".png?raw=true)
 ","")</f>
         <v xml:space="preserve">## Octagram Spiral
-Esthetic pattern with low strength and high print time.
+Aesthetic pattern with low strength and high print time.
 - **Horizontal Strength (X-Y):** Low
 - **Vertical Strength (Z):** Normal
 - **Density Calculation:**  % of  total infill volume
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M30" s="8"/>
       <c r="O30" t="e">
@@ -6842,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M31" s="8"/>
       <c r="O31" t="e">
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M32" s="8"/>
       <c r="O32" t="e">
